--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -505,14 +505,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//button[@id="bubble"]"}
-  (Session info: chrome=91.0.4472.114)
-</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -547,7 +540,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//h3[contains(text(),'Interested in studying abroad with us?')]"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -569,7 +562,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='text-765']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -591,7 +584,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='email-931']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -613,7 +606,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='text-631']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -635,7 +628,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//select[@name='menu-104']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -657,7 +650,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//select[@name='menu-105']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -679,7 +672,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@value='Submit']"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>
@@ -701,7 +694,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class="wpcf7-response-output"]"}
+          <t xml:space="preserve">Message: chrome not reachable
   (Session info: chrome=91.0.4472.114)
 </t>
         </is>

--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -1,57 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\PycharmProjects\QA_Assignment\Output_Result\test_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53AE7A-F552-4A7A-9EAB-746EB8024BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestResults" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Test Executed On</t>
-  </si>
-  <si>
-    <t>2021-07-03 12:42:42.350607</t>
-  </si>
-  <si>
-    <t>Number of Test Cases</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -70,35 +48,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,55 +409,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D1">
-        <f>COUNTA([1]Sheet1!A:A)</f>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Open Browser</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Open URL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verify Page Title</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hover Health A-Z</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hover Drugs &amp; Suppliments</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hover Living Healthy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hover Family &amp; Pregnancy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Hover News &amp; Experts</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Close Browser</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFC1EE7-5A7E-4E44-89A3-4C096FD3546A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="TestResults" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="TestSummary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +672,48 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test Executed On</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2021-07-03 13:29:51.983579</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Number of Test Cases</t>
+        </is>
+      </c>
+      <c r="B2">
+        <f>(COUNTA(TestResults!A:A) - 1)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,10 +664,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Something</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SKIPPED</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Test was skipped due to N FLAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Close Browser</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -684,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,18 +720,71 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2021-07-03 13:29:51.983579</t>
+          <t>2021-07-03 14:57:18.851836</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Number of Test Cases</t>
-        </is>
-      </c>
-      <c r="B2">
+          <t>Test Completed On</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-07-03 14:57:52.609948</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Total Number of Test</t>
+        </is>
+      </c>
+      <c r="B4">
         <f>(COUNTA(TestResults!A:A) - 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Number of Passed Test Case</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(TestResults!C:C, "PASS")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Number of Failed Test Case</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(TestResults!C:C, "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Number of Skipped Test Case</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(TestResults!C:C, "SKIPPED")</f>
         <v/>
       </c>
     </row>

--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,13 +27,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00ffffff"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0068A0F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -48,8 +61,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,24 +455,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.5" customWidth="1" min="1" max="1"/>
+    <col width="27.5" customWidth="1" min="2" max="2"/>
+    <col width="9.5" customWidth="1" min="3" max="3"/>
+    <col width="32.5" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>SN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Test Summary</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -711,41 +732,49 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="29.5" customWidth="1" min="1" max="1"/>
+    <col width="38.5" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Test Executed On</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2021-07-03 14:57:18.851836</t>
+          <t>2021-07-04 11:45:36.971900</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Test Completed On</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-03 14:57:52.609948</t>
+          <t>2021-07-04 11:46:14.470282</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://webmd.com</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Total Number of Test</t>
         </is>
@@ -756,7 +785,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Number of Passed Test Case</t>
         </is>
@@ -767,7 +796,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Number of Failed Test Case</t>
         </is>
@@ -778,7 +807,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Number of Skipped Test Case</t>
         </is>

--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -745,7 +745,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2021-07-04 11:45:36.971900</t>
+          <t>2021-07-04 16:05:05.718119</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-04 11:46:14.470282</t>
+          <t>2021-07-04 16:06:42.157486</t>
         </is>
       </c>
     </row>

--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TestSummary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="TestResults" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="TestSummary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -69,6 +68,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="00000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="0000AA00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00EE1111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="00000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="0068A0F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -430,301 +461,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="4.5" customWidth="1" min="1" max="1"/>
-    <col width="27.5" customWidth="1" min="2" max="2"/>
-    <col width="9.5" customWidth="1" min="3" max="3"/>
-    <col width="32.5" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Test Summary</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Result</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Open Browser</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Open URL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Verify Page Title</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hover Health A-Z</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hover Drugs &amp; Suppliments</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Hover Living Healthy</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Hover Family &amp; Pregnancy</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Wait</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Hover News &amp; Experts</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Something</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SKIPPED</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Test was skipped due to N FLAG</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Close Browser</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -745,7 +481,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2021-07-04 16:05:05.718119</t>
+          <t>2021-07-04 19:25:29.896832</t>
         </is>
       </c>
     </row>
@@ -757,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-07-04 16:06:42.157486</t>
+          <t>2021-07-04 19:27:29.890235</t>
         </is>
       </c>
     </row>
@@ -820,4 +556,1040 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4.5" customWidth="1" min="1" max="1"/>
+    <col width="38.5" customWidth="1" min="2" max="2"/>
+    <col width="8.5" customWidth="1" min="3" max="3"/>
+    <col width="185.5" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Test Summary</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Open Browser</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Open URL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verify Page Title</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Click On SIGN IN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Input Valid Username</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Input Valid Password</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Click On Sign In Button</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Click On My Profile</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Click On My Account</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Click On Edit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Input First Name</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Input Last Name</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Input Birth Date</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>object of type 'datetime.datetime' has no len()</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Select Gender Dropdown</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Input Zip Code</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Input Phone Number</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Input Phone Type</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Click On Save Button</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Input Text On Search Field</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Click On Search Icon</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Click On Contact US Link</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Click On Contact Us Button</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"/html/body/div[1]/div/a"}
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Click On Drop Down</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"/html/body/main/div/div/form/div/a"}
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Open URL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Input email</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Input First Name</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Input Last Name</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Select Advertising Category Dropdown</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Input Subject</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Input Comments</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Click On Add file </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: invalid argument: File not found : Add
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Click On Submit Button</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Verify Submit Result</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='Your request was successfully submitted.']"}
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Click On WebMD Icon</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Click On My Profile </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Click On Sign Out</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hover Health A-Z</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Hover Drugs &amp; Suppliments</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hover Living Healthy</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Hover Family &amp; Pregnancy</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Hover News &amp; Experts</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Close Browser</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C60">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="2" text="SKIPPED">
+      <formula>NOT(ISERROR(SEARCH("SKIPPED",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Output_Result/test_result/TestResult.xlsx
+++ b/Output_Result/test_result/TestResult.xlsx
@@ -479,8 +479,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.5" customWidth="1" min="1" max="1"/>
-    <col width="38.5" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,7 +491,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>2021-07-04 21:29:06.035656</t>
+          <t>2021-07-04 21:47:21.530455</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>2021-07-04 21:29:30.228102</t>
+          <t>2021-07-04 21:49:13.026020</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,10 +582,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.5" customWidth="1" min="1" max="1"/>
-    <col width="19.5" customWidth="1" min="2" max="2"/>
-    <col width="9.5" customWidth="1" min="3" max="3"/>
-    <col width="32.5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
+    <col width="186" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,14 +669,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Title not matched</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
@@ -684,7 +680,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Hover Health A-Z</t>
+          <t>Click On SIGN IN</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -700,19 +696,15 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Something</t>
+          <t>Wait</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>SKIPPED</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Test was skipped due to N FLAG</t>
-        </is>
-      </c>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
@@ -720,18 +712,936 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
+          <t>Input Valid Username</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Input Valid Password</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>Click On Sign In Button</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Click On My Profile</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Click On My Account</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Click On Edit</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Input First Name</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Input Last Name</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Input Birth Date</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>object of type 'datetime.datetime' has no len()</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Select Gender Dropdown</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Input Zip Code</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Input Phone Number</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Input Phone Type</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Click On Save Button</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Input Text On Search Field</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Click On Search Icon</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Click On Contact US Link</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Click On Contact Us Button</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Click On Drop Down</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Open URL</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Input email</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Input First Name</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Input Last Name</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Select Advertising Category Dropdown</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Input Subject</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Input Comments</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Click On Add file </t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: invalid argument: File not found : Add
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Click On Submit Button</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Verify Submit Result</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//strong[text()='Your request was successfully submitted.']"}
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Click On WebMD Icon</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Click On My Profile </t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Click On Sign Out</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Hover Health A-Z</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"xpath","selector":"//li[@data-metrics-module="hicb1"]"}
+  (Session info: chrome=91.0.4472.124)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Hover Drugs &amp; Suppliments</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Hover Living Healthy</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Hover Family &amp; Pregnancy</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Wait</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Hover News &amp; Experts</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
           <t>Close Browser</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="n"/>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C60">
+  <conditionalFormatting sqref="C1:C100">
     <cfRule type="containsText" priority="1" operator="containsText" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("PASS",C1)))</formula>
     </cfRule>
